--- a/meta/3-5-2-1.xlsx
+++ b/meta/3-5-2-1.xlsx
@@ -128,9 +128,6 @@
     <t>Человек, страдающий алкогольной зависимостью, имеет непреодолимое, неподконтрольное желание выпить, которое становится важнее практически всего остального в его жизни. Именно это страстное желание, трудность ограничить количество выпиваемого алкоголя, а также абстинентный синдром, возникающий после прекращения употребления спиртных напитков, отличает алкогольную зависимость от злоупотреблений алкоголем (регулярное потребление в неумеренных количествах).</t>
   </si>
   <si>
-    <t>Форма государственной статистической отчетности №11 «Отчет о наркологических расстройствах»</t>
-  </si>
-  <si>
     <t>Представляют наркологические (психоневрологические) учреждения, центры семейной медицины областным медико - информационным центрам в установленные сроки; областные медико-информационные центры сводный отчет в разрезе районов – Минздраву Кыргызской Республики в сроки, установленные последним; Минздрав Кыргызской Республики и министерства, ведомства сводные отчеты (в разрезе областей и районов) Нацстаткому Кыргызской Республики</t>
   </si>
   <si>
@@ -152,18 +149,29 @@
   <si>
     <t>http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/
 Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Форма государственной статистической отчетности №10 «Отчет о психических и наркологических расстройствах»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,25 +238,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -560,8 +572,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,8 +699,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -710,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/meta/3-5-2-1.xlsx
+++ b/meta/3-5-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Заболеваемость алкогольной зависимостью определяется как количество новых случаев алкогольной зависимости на 100 000 человек, подвергающихся риску каждый год.</t>
   </si>
   <si>
@@ -152,18 +149,29 @@
   </si>
   <si>
     <t>Форма государственной статистической отчетности №10 «Отчет о психических и наркологических расстройствах»</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,30 +246,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -572,8 +584,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,8 +667,8 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -722,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
